--- a/uploads/stats_test2.xlsx
+++ b/uploads/stats_test2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Work\altitudebpo_online_stats\Altitudebpo-online-dashboard\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF41B09D-B3A5-4C8B-96C5-B573AB5AC30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D782D6E9-07AC-4BCE-A67E-A0E808A2263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15300" windowHeight="7785" xr2:uid="{8FFCB777-CAED-42EB-9B0B-CBE135F75017}"/>
+    <workbookView xWindow="2355" yWindow="2970" windowWidth="15300" windowHeight="7785" xr2:uid="{8FFCB777-CAED-42EB-9B0B-CBE135F75017}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,40 +34,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Team</t>
+    <t>Vodacom Funeral</t>
   </si>
   <si>
-    <t>Target</t>
+    <t>Media</t>
   </si>
   <si>
-    <t>Current</t>
+    <t>Upsell</t>
   </si>
   <si>
-    <t>Team Glanton</t>
-  </si>
-  <si>
-    <t>Team Tebogo</t>
-  </si>
-  <si>
-    <t>Team Victus</t>
+    <t>Total Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,6 +92,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -113,7 +110,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,59 +425,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131B74AE-0361-4281-8F46-2B4C27233B06}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>300</v>
       </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>300</v>
       </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>300</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
